--- a/tools/supply_chain_data.xlsx
+++ b/tools/supply_chain_data.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Dev\_Project\DSS\data\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Dev\_Project\dss\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BF3320-F170-4CC2-945B-74FB3AEFB39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613DD831-FADA-4FCD-8790-F198F75B936C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
     <sheet name="supplier_summary" sheetId="2" r:id="rId2"/>
+    <sheet name="topsis" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="155">
   <si>
     <t>price</t>
   </si>
@@ -483,6 +485,9 @@
   </si>
   <si>
     <t>SKU99</t>
+  </si>
+  <si>
+    <t>Chuẩn hoá dữ liệu</t>
   </si>
 </sst>
 </file>
@@ -9107,10 +9112,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB46ACB-B6DD-4B34-9D61-8B16039379D3}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9394,10 +9399,39 @@
         <v>8662</v>
       </c>
     </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>154</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9E7723-33EF-4161-B7E9-22D0A18BB71B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68869B1C-A4B3-4653-9C97-E255642DFD90}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>